--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhbertram/Documents/GitHub/TrioSphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB68EE-F448-D74D-95A7-CEC78FD5E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E57418-D9AF-E447-9310-7D368331F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20980" windowWidth="19200" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1414,7 +1414,7 @@
     <t>dateAdded</t>
   </si>
   <si>
-    <t xml:space="preserve">The NaNaNational Notifiable Diseases Surveillance System (NNDSS) collects, analyzes, and shares data on nationally notifiable diseases to monitor and protect public health in the United States.
+    <t xml:space="preserve">The National Notifiable Diseases Surveillance System (NNDSS) collects, analyzes, and shares data on nationally notifiable diseases to monitor and protect public health in the United States.
 #### Host Organization
 - Centers for Disease Control and Prevention
 #### Data Format
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhbertram/Documents/GitHub/TrioSphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E57418-D9AF-E447-9310-7D368331F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC252F4-30FB-B641-A5C8-AD69F470381D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20980" windowWidth="19200" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,25 +252,6 @@
 </t>
   </si>
   <si>
-    <t>The Colorado Health Indicators Dashboard is an interactive Tableau-based tool from CDPHE that presents data on community health indicators.
-#### Host Organization
-- Colorado Department of Public Health and Environment 
-#### Data Format
-- Data is available on **Birth and Death**, **Disease and Injury**, **Health Behaviors**, **Living Conditions**, and ** Social and Institutional Equity**.
-- The data available for download is primarily in XLSX.
-#### How to access data of interest
-- Select a **Topic** of interest
-- Scroll to the bottom of the summary data
-- Select **Download Archived Data**
-- This brings you to a Google Drive folder containing archived data on your topic of interest
-#### Database Time Range
-- 2022 - 2024
-#### Access Type
-- Public
-#### Citation Information
-- Colorado Department of Public Health &amp; Environment (CDPHE). “Child Health Indicators Dashboard.” *Colorado Health Dashboard*, accessed July 2025, &lt;https://cohealthviz.dphe.state.co.us/t/HSEBPublic/views/CHIDashboard_2024Redesign/CHILandingPage?%3Aembed=y&amp;%3AisGuestRedirectFromVizportal=y&gt;.</t>
-  </si>
-  <si>
     <t>CDPHE Viral Respiratory Illnesses Archived Data Files</t>
   </si>
   <si>
@@ -339,24 +320,6 @@
   </si>
   <si>
     <t>Temperature; precipitation; wind; humidity; sunrise; sunset; day length; snowfall; snow depth; UV Index; AQI; Sky cover; Weather; weather data; climate data; Boulder; Colorado; Western Regional Climate Center; drought monitoring; climate normals; climate trends; weather forecasts; historical weather; weather records; severe weather; wind data; atmospheric pressure; climate monitoring; seasonal climate; meteorology; weather alerts; weather warnings; Atmospheric Shift; Ecological changes; Weather pattern disruption; temperature anomalies; freeze dates; growing season; heat index; cold index; solar radiation; evapotranspiration; climate statistics; climate summaries; weather observations; climate reports; hydrology; climate variability; precipitation patterns; weather climatology; regional climate; weather station data; climate analysis; weather patterns; weather extremes; weather hazards; flash flood; hail; tornado risk; severe thunderstorms; public weather service; climate research; climate models; weather radar; temperature records; environmental data; drought status; river basin data; agricultural weather; climatology tools; data downloads; meteorological data; air temperature; wind speed; wind direction; weather trends; climate impact; seasonal outlook; monthly climate reports; climate monitoring tools; climate indices; air quality index; barometric pressure; atmospheric conditions; dew point; fog events; frost risk; storm surge; lightning strikes; mesoscale meteorology; synoptic scale; weather modeling; weather satellites; weather sensors; climate indicators; jet stream; climate zones; ENSO (El Niño–Southern Oscillation); La Niña; El Niño; polar vortex; atmospheric rivers; snowpack data; seasonal forecasts; climate adaptation; hydrometeorology; agroclimatology; environmental monitoring; climate resilience; urban microclimate; storm tracking; convective systems; precipitation forecasting; precipitation extremes; extreme heat events; prolonged drought; precipitation radar; soil moisture data; climate sensitivity; interannual variability; planetary boundary layer; local climate zones; weather instrumentation; weather reconstructions; climate forcing; greenhouse gas emissions; climate change indicators; global temperature rise; energy balance; solar cycles; paleoclimatology; reanalysis data; meteorological hazards; thunderstorm frequency; temperature gradients; vertical wind shear; regional drought indices; heatwaves; cold spells; weather risk management; storm events; synoptic weather maps; mesoscale analysis; agricultural drought; temperature fluctuations; precipitation efficiency; microclimate assessment; climate change; Historic; Current; Present; 1872 - 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOWDATA provides a range of preliminary local climatological data—such as daily and monthly temperature (max/min/avg), precipitation, degree‑day summaries, record events, and more—via curated reports and links to detailed datasets and archives.
-#### Host Organization
-- National Weather Service
-- National Oceanic and Atmospheric Administration
-#### Data Format
-- Data is primarily available in CSV format
-#### How to access data of interest
-- Data can be summarized in 9 different **Products**.
-- Data is available for the following weather variables: **Maximum, Minimum, and Average Temperatures**, **Precipitation**, **Snowfall**, **Snow Depth**, **Heating Degree Days Base 65**, **Cooling Degree Days Base 65**, ** Growing Degree Days Base 50**, **Humidity**, **Sunrise and Sunset**, and more.
-#### Database Time Range
-- 1872 - 2025
-#### Access Type
-- Public
-#### Citation Information
-- Follow the instructions on the [NOAA by the Numbers - How to Cite Page](https://sciencecouncil.noaa.gov/noaa-by-the-numbers/how-to-cite/)
-</t>
   </si>
   <si>
     <t>Wind Data Hub</t>
@@ -1076,26 +1039,6 @@
     <t>PHAROS; wildlife pathogens; zoonotic diseases; pathogen surveillance; wildlife disease monitoring; pathogen testing; parasite sampling; wildlife health; geospatial metadata; host-pathogen interactions; disease emergence; wildlife epidemiology; pathogen distribution; disease ecology; wildlife conservation; pathogen detection; wildlife sampling; disease mapping; global health; environmental health; pathogen genomics; biodiversity; public health; disease prevention; wildlife research; pathogen data sharing; wildlife monitoring; disease outbreaks; pathogen diversity; wildlife pathogens database; wildlife disease atlas; pathogen harmonization; wildlife disease surveillance; pathogen sharing platform; wildlife health data; disease risk assessment; wildlife epidemiology network; pathogen monitoring; wildlife disease research; zoonotic pathogen tracking; wildlife disease database; pathogen surveillance network; wildlife disease mapping; pathogen data access; wildlife health monitoring; disease emergence research; wildlife pathogen distribution; pathogen data sharing platform; wildlife disease research network; pathogen detection technologies; wildlife disease prevention; pathogen monitoring tools; Historic; Current; Present; 2010-2025</t>
   </si>
   <si>
-    <t>The Pathogen Harmonized Observatory (PHAROS) is a collaborative initiative designed to collect and share standardized wildlife pathogen surveillance data. By providing a unified platform, PHAROS aims to support early detection and monitoring of zoonotic diseases, facilitating global research and response efforts.
-#### Host Organization
-- Viral Emergence Research Initiative (Verena)
-#### Data Format
-- Data is primarily available in CSV, TSV, Excel (XLSX), JSON, API access, FTP download
-#### How to access data of interest
-- Select **View map**
-- Select **Table**
-- Select **Filters** and search for information of interest
-- Once you’ve selected the files you would like to download select **Download data button**
-#### Database Time Range
-- 2010 - 2025
-#### Access Type
-- Private*
--*Must make an account to download data (but only an email is required)
-#### Citation Information
-- Please follow the instructions on Pharos’ [Attribution Requirment](https://pharos.viralemergence.org/research-with-pharos/attribution/) page
-- Carlson, C. J., &amp; Verena Program. (2023). *Pathogen Harmonized Observatory (PHAROS)*. Georgetown University Medical Center. Retrieved September 23, 2025, from &lt;https://pharos.viralemergence.org/&gt;</t>
-  </si>
-  <si>
     <t>Earth Observing Laboratory Field Data Archive</t>
   </si>
   <si>
@@ -1131,25 +1074,6 @@
   </si>
   <si>
     <t>EarthExplorer; USGS; satellite imagery; aerial photography; remote sensing; geospatial data; Landsat; Sentinel; MODIS; ASTER; NAIP; SRTM; DEM; digital elevation model; land cover; cartographic products; Digital Line Graphs; DLG; environmental monitoring; land use; land cover mapping; disaster response; scientific research; geospatial analysis; GIS; geographic information system; spatial data; temporal analysis; multispectral imagery; hyperspectral imagery; vegetation index; NDVI; urban mapping; agriculture monitoring; forestry; water resources; climate change; coastal studies; habitat mapping; biodiversity; ecosystem services; flood modeling; wildfire monitoring; infrastructure planning; urban development; historical imagery; time series analysis; remote sensing applications; data visualization; data access; metadata; data stewardship; public datasets; scientific collaboration; data sharing; data discovery; data interoperability; data standards; data formats; data processing; data integration; data quality; data analysis; data archiving; long-term storage; scientific publications; data citation; data access methods; API; FTP; bulk download; web interface; EarthExplorer account; Historic; Current; Present; 1960-2025</t>
-  </si>
-  <si>
-    <t>USGS EarthExplorer is a web-based application developed by the U.S. Geological Survey's Earth Resources Observation and Science (EROS) Center. It offers users the ability to search, preview, and download a vast array of geospatial datasets, including satellite imagery, aerial photographs, and digital elevation models, supporting various applications in environmental monitoring, research, and analysis.
-#### Host Organization
-- United States Geological Survey
-#### Data Format
-- Data is primarily available in GeoTIFF, JPEG, PNG, HDF, NetCDF, GeoJSON, KML, Shapefile, ASCII, CSV, BMP, TIFF, DBF, TXT, WMS, WFS, Web Map Service, Web Feature Service
-#### How to access data of interest
-- Select Dataset of interest
-- In popup window scroll to the bottom and select **Open in New Window**
-- Scroll to the bottom and select **Download**
-#### Database Time Range
-- 1960 - 2025
-#### Access Type
-- Private*
--* Must create USGS account (only requires you to select a username and password)
-#### Citation Information
-- Follow the instructions given on the [USGS’ Data Citation](https://www.usgs.gov/centers/eros/data-citation) page
-- U.S. Geological Survey. (n.d.). *EarthExplorer*. Retrieved September 23, 2025, from &lt;https://earthexplorer.usgs.gov/&gt;</t>
   </si>
   <si>
     <t>CDC WONDER</t>
@@ -1426,6 +1350,82 @@
 #### Citation Information
 - Follow the instructions on the [Citations for National Center for Health Statistics](https://www.cdc.gov/nchs/products/citations.htm)
 - Centers for Disease Control and Prevention (CDC). “Browse NNDSS Data.” *CDC Data Portal*, July 2025, &lt;https://data.cdc.gov/browse?category=NNDSS&amp;sortBy=last_modified&amp;pageSize=20&amp;page=1&gt;. </t>
+  </si>
+  <si>
+    <t>The Colorado Health Indicators Dashboard is an interactive Tableau-based tool from CDPHE that presents data on community health indicators.
+#### Host Organization
+- Colorado Department of Public Health and Environment 
+#### Data Format
+- Data is available on **Birth and Death**, **Disease and Injury**, **Health Behaviors**, **Living Conditions**, and **Social and Institutional Equity**.
+- The data available for download is primarily in XLSX.
+#### How to access data of interest
+- Select a **Topic** of interest
+- Scroll to the bottom of the summary data
+- Select **Download Archived Data**
+- This brings you to a Google Drive folder containing archived data on your topic of interest
+#### Database Time Range
+- 2022 - 2024
+#### Access Type
+- Public
+#### Citation Information
+- Colorado Department of Public Health &amp; Environment (CDPHE). “Child Health Indicators Dashboard.” *Colorado Health Dashboard*, accessed July 2025, &lt;https://cohealthviz.dphe.state.co.us/t/HSEBPublic/views/CHIDashboard_2024Redesign/CHILandingPage?%3Aembed=y&amp;%3AisGuestRedirectFromVizportal=y&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOWDATA provides a range of preliminary local climatological data—such as daily and monthly temperature (max/min/avg), precipitation, degree‑day summaries, record events, and more—via curated reports and links to detailed datasets and archives.
+#### Host Organization
+- National Weather Service
+- National Oceanic and Atmospheric Administration
+#### Data Format
+- Data is primarily available in CSV format
+#### How to access data of interest
+- Data can be summarized in 9 different **Products**.
+- Data is available for the following weather variables: **Maximum, Minimum, and Average Temperatures**, **Precipitation**, **Snowfall**, **Snow Depth**, **Heating Degree Days Base 65**, **Cooling Degree Days Base 65**, **Growing Degree Days Base 50**, **Humidity**, **Sunrise and Sunset**, and more.
+#### Database Time Range
+- 1872 - 2025
+#### Access Type
+- Public
+#### Citation Information
+- Follow the instructions on the [NOAA by the Numbers - How to Cite Page](https://sciencecouncil.noaa.gov/noaa-by-the-numbers/how-to-cite/)
+</t>
+  </si>
+  <si>
+    <t>The Pathogen Harmonized Observatory (PHAROS) is a collaborative initiative designed to collect and share standardized wildlife pathogen surveillance data. By providing a unified platform, PHAROS aims to support early detection and monitoring of zoonotic diseases, facilitating global research and response efforts.
+#### Host Organization
+- Viral Emergence Research Initiative (Verena)
+#### Data Format
+- Data is primarily available in CSV, TSV, Excel (XLSX), JSON, API access, FTP download
+#### How to access data of interest
+- Select **View map**
+- Select **Table**
+- Select **Filters** and search for information of interest
+- Once you’ve selected the files you would like to download select **Download data button**
+#### Database Time Range
+- 2010 - 2025
+#### Access Type
+- Private* 
+- *Must make an account to download data (but only an email is required)
+#### Citation Information
+- Please follow the instructions on Pharos’ [Attribution Requirment](https://pharos.viralemergence.org/research-with-pharos/attribution/) page
+- Carlson, C. J., &amp; Verena Program. (2023). *Pathogen Harmonized Observatory (PHAROS)*. Georgetown University Medical Center. Retrieved September 23, 2025, from &lt;https://pharos.viralemergence.org/&gt;</t>
+  </si>
+  <si>
+    <t>USGS EarthExplorer is a web-based application developed by the U.S. Geological Survey's Earth Resources Observation and Science (EROS) Center. It offers users the ability to search, preview, and download a vast array of geospatial datasets, including satellite imagery, aerial photographs, and digital elevation models, supporting various applications in environmental monitoring, research, and analysis.
+#### Host Organization
+- United States Geological Survey
+#### Data Format
+- Data is primarily available in GeoTIFF, JPEG, PNG, HDF, NetCDF, GeoJSON, KML, Shapefile, ASCII, CSV, BMP, TIFF, DBF, TXT, WMS, WFS, Web Map Service, Web Feature Service
+#### How to access data of interest
+- Select Dataset of interest
+- In popup window scroll to the bottom and select **Open in New Window**
+- Scroll to the bottom and select **Download**
+#### Database Time Range
+- 1960 - 2025
+#### Access Type
+- Private*
+- *Must create USGS account (only requires you to select a username and password)
+#### Citation Information
+- Follow the instructions given on the [USGS’ Data Citation](https://www.usgs.gov/centers/eros/data-citation) page
+- U.S. Geological Survey. (n.d.). *EarthExplorer*. Retrieved September 23, 2025, from &lt;https://earthexplorer.usgs.gov/&gt;</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="L30" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2071,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         <v>2025</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>18</v>
@@ -2121,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>21</v>
@@ -2149,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N3" s="45">
         <v>45974</v>
@@ -2257,7 +2257,7 @@
         <v>2025</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L5" s="24" t="s">
         <v>36</v>
@@ -2369,7 +2369,7 @@
         <v>2025</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L7" s="24" t="s">
         <v>48</v>
@@ -2431,7 +2431,7 @@
         <v>54</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="N8" s="45">
         <v>45974</v>
@@ -2456,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>22</v>
@@ -2484,10 +2484,10 @@
         <v>53</v>
       </c>
       <c r="L9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>60</v>
       </c>
       <c r="N9" s="45">
         <v>45974</v>
@@ -2512,16 +2512,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>16</v>
@@ -2537,13 +2537,13 @@
         <v>2005</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="N10" s="45">
         <v>45974</v>
@@ -2568,16 +2568,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>16</v>
@@ -2593,13 +2593,13 @@
         <v>2025</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="N11" s="45">
         <v>45974</v>
@@ -2624,16 +2624,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>74</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>16</v>
@@ -2649,13 +2649,13 @@
         <v>2025</v>
       </c>
       <c r="K12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="N12" s="45">
         <v>45974</v>
@@ -2680,13 +2680,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>41</v>
@@ -2705,13 +2705,13 @@
         <v>2025</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N13" s="45">
         <v>45974</v>
@@ -2736,13 +2736,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>85</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>41</v>
@@ -2761,13 +2761,13 @@
         <v>2025</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N14" s="45">
         <v>45974</v>
@@ -2792,16 +2792,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="E15" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>16</v>
@@ -2817,13 +2817,13 @@
         <v>2025</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N15" s="45">
         <v>45974</v>
@@ -2848,19 +2848,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="F16" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>17</v>
@@ -2873,13 +2873,13 @@
         <v>2025</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N16" s="45">
         <v>45974</v>
@@ -2904,16 +2904,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>16</v>
@@ -2929,13 +2929,13 @@
         <v>2025</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N17" s="45">
         <v>45974</v>
@@ -2960,16 +2960,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>106</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>16</v>
@@ -2985,13 +2985,13 @@
         <v>2025</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N18" s="45">
         <v>45974</v>
@@ -3016,16 +3016,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>16</v>
@@ -3041,13 +3041,13 @@
         <v>2025</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N19" s="45">
         <v>45974</v>
@@ -3072,19 +3072,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>23</v>
@@ -3097,13 +3097,13 @@
         <v>2023</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N20" s="45">
         <v>45974</v>
@@ -3128,16 +3128,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="E21" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>16</v>
@@ -3153,13 +3153,13 @@
         <v>2025</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N21" s="45">
         <v>45974</v>
@@ -3184,16 +3184,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>124</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>16</v>
@@ -3209,13 +3209,13 @@
         <v>2025</v>
       </c>
       <c r="K22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="N22" s="45">
         <v>45974</v>
@@ -3240,19 +3240,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>130</v>
-      </c>
       <c r="E23" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>23</v>
@@ -3265,13 +3265,13 @@
         <v>2025</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N23" s="45">
         <v>45974</v>
@@ -3296,16 +3296,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>135</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>16</v>
@@ -3321,13 +3321,13 @@
         <v>2025</v>
       </c>
       <c r="K24" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="N24" s="45">
         <v>45974</v>
@@ -3352,19 +3352,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="E25" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>17</v>
@@ -3377,13 +3377,13 @@
         <v>2025</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N25" s="45">
         <v>45974</v>
@@ -3408,16 +3408,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="E26" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>16</v>
@@ -3433,13 +3433,13 @@
         <v>2025</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N26" s="45">
         <v>45974</v>
@@ -3464,16 +3464,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="E27" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>153</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>16</v>
@@ -3489,13 +3489,13 @@
         <v>2025</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N27" s="45">
         <v>45974</v>
@@ -3520,16 +3520,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>158</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>16</v>
@@ -3545,13 +3545,13 @@
         <v>2025</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N28" s="45">
         <v>45974</v>
@@ -3576,13 +3576,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>41</v>
@@ -3599,13 +3599,13 @@
         <v>2025</v>
       </c>
       <c r="K29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="N29" s="45">
         <v>45974</v>
@@ -3630,22 +3630,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>169</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13">
@@ -3655,13 +3655,13 @@
         <v>2025</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N30" s="45">
         <v>45974</v>
@@ -3686,13 +3686,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>2025</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N31" s="45">
         <v>45974</v>
@@ -3742,13 +3742,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>22</v>
@@ -3767,13 +3767,13 @@
         <v>2025</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N32" s="45">
         <v>45974</v>
@@ -3798,13 +3798,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>22</v>
@@ -3823,13 +3823,13 @@
         <v>2025</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N33" s="45">
         <v>45974</v>
@@ -3854,13 +3854,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>186</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>188</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>22</v>
@@ -3879,13 +3879,13 @@
         <v>2025</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N34" s="45">
         <v>45974</v>
@@ -3910,13 +3910,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>193</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>22</v>
@@ -3935,13 +3935,13 @@
         <v>2025</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N35" s="45">
         <v>45974</v>
@@ -3966,13 +3966,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>22</v>
@@ -3991,13 +3991,13 @@
         <v>2025</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N36" s="45">
         <v>45974</v>
@@ -4022,16 +4022,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>203</v>
-      </c>
       <c r="E37" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>16</v>
@@ -4047,13 +4047,13 @@
         <v>2025</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="N37" s="45">
         <v>45974</v>
@@ -4078,22 +4078,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13">
@@ -4103,13 +4103,13 @@
         <v>2025</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N38" s="45">
         <v>45974</v>
@@ -4134,22 +4134,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="34">
@@ -4159,13 +4159,13 @@
         <v>2025</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="N39" s="45">
         <v>45974</v>
@@ -4190,13 +4190,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>22</v>
@@ -4215,13 +4215,13 @@
         <v>2025</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N40" s="45">
         <v>45974</v>
@@ -4246,16 +4246,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>16</v>
@@ -4271,13 +4271,13 @@
         <v>2025</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N41" s="45">
         <v>45974</v>
@@ -4302,13 +4302,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>22</v>
@@ -4327,13 +4327,13 @@
         <v>2025</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L42" s="43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M42" s="44" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N42" s="45">
         <v>45974</v>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhbertram/Documents/GitHub/TrioSphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC252F4-30FB-B641-A5C8-AD69F470381D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52756A57-1F04-254B-BB05-3DD78B756796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20980" windowWidth="19200" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-20980" windowWidth="38400" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Tabular</t>
   </si>
   <si>
-    <t>Disease Surveillance; Public Health; Population Health; United States</t>
-  </si>
-  <si>
     <t>CDC; MMWR; Disease; Health; United States; Public Health; Human Health; Community Health; Morbidity; Mortality; Reportable Disease; Notifiable Disease; Surveillance; COVID; Behavioral Health; Youth; Aerosols; Tuberculosis; Occupational Health; Influenza; data portal; epidemiology; health statistics; chronic disease; infectious disease; environmental health; emergency preparedness; health behaviors; vaccination; health disparities; healthcare access; healthcare utilization; birth outcomes; laboratory data; diet and nutrition; physical activity; injury; occupational safety; environmental exposures; geospatial data; demographics; health indicators; behavioral risk factors; opioids; substance abuse; adolescent health; population health; CDC; Human; Health; Public Health; Disease; Population Health; Epidemiologic Surveillance; Disease Outbreaks; Health Promotion; National Health Surveys; Preventive Medicine; Communicable Diseases; Non-communicable Diseases; Health Equity; Health Policy; Health Services Research; Health Outcomes; Risk Assessment; Vaccine Coverage; Immunization Programs; Social Determinants of Health; Health Communication; Disease Control Programs; Public Health Interventions; Health Informatics; Biostatistics; Global Health; Health Education; Health Screening; Maternal Health; Infant Mortality; Adolescent Risk Behaviors; Mental Health; Substance Use Disorders; Injury Prevention; Environmental Toxicology; Occupational Medicine; Health Workforce; Healthcare Quality; Healthcare Costs; Patient Safety; Community-Based Participatory Research; Geographic Information Systems (GIS); Spatial Epidemiology; Population Demographics; Race; Ethnicitiy; Disability; LGBTQ+; Health Surveys; Health Data Analytics; Chronic Disease Management; Pandemic Preparedness; Antimicrobial Resistance; Syndromic Surveillance; Health Registries; Clinical Data; Health Risk Factors; Public Health Law; Policy Analysis; Telehealth; Health Technology Assessment; Behavioral Interventions; Health Equity Metrics; Disease Modeling; Vaccination Coverage; Healthcare Disparities; Health Literacy; Mental Health; Historic; Current; Present; 1950-2025</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>People; Animals; Ecosystems</t>
   </si>
   <si>
-    <t>Land Management; Conservation; Ecosystem Data; Agriculture; Species Distribution; United States</t>
-  </si>
-  <si>
     <t>Agriculture; Borders; Boundaries; BLM; Bureau of Land Management; Cemetery; Colorado; Census; Metropolitan; Municipal; Zoning; Childcare; School District; Colleges; Universities; Reservations; Elevation; Air Quality; AirNow; National Monuments; Coal; Conservation Districts; Species Data; Wilderness Areas; Superfund; Wildlife Refuge; Wildfires; Shelter and Warming; Ambulance; Drug Treatment; Behavioral Health; Health; EMS; Fire; Hospital; Law Enforcement; Substances; WIC; Legislative Districts; Congressional Districts; Voting; Senate Districts; Recreation; Wild Rivers; Scenic Rivers; Parks; Recreation Area; Bridges; North American Rail; Aviation; Highways; Roads; Tunnels; Amtrak; Byways; Broadband; Hydrography; Water; Sanitation; Historic; 2020; 2021; 2022; 2023; 2024; 2025; Colorado GIS; spatial data; geospatial portal; map services; web services; public parcels; land use; transportation networks; environmental layers; topography; imagery; demographics; infrastructure; utility lines; trail systems; emergency management; planning; cadastral data; geodatabase; feature service; tile service; metadata; open data; ArcGIS REST; shapefiles; GeoJSON; kml; Wildlife; Distribution; Colorado; Colorado Parks and Wildlife; CPW; Species Range; Breeding Range; Migration; Species Overall Range; Land Tenure; Parcel Boundaries; Land Ownership; Property Tax; Land Management; Public Lands; Forest Service; National Parks; Recreation Trails; Conservation Easements; Environmental Impact; Habitat Protection; Endangered Species; Wildlife Corridors; Invasive Species Management; Disaster Recovery; Emergency Response; Crisis Management; Behavioral Health Services; Substance Use Programs; Mental Health Resources; Ambulance Services; Fire Departments; Hospital Networks; Medical Facilities; Law Enforcement Agencies; Crime Prevention; Public Safety Communications; WIC Programs; Social Services; Government Districts; Voting Precincts; Election Results; Legislative Mapping; Transportation Planning; Rail Networks; Transit Systems; Road Maintenance; Traffic Management; Aviation Facilities; Airports; Freight Corridors; Broadband Access; Telecommunications; Water Resources Management; Watersheds; Stormwater; Wastewater Treatment; Historic Sites; Cultural Heritage; GIS Data Portals; Spatial Analysis; Map Layers; Geospatial Data Sharing; Data Catalogs; Web Map Services; Vector Tiles; Raster Tiles; Geospatial Metadata; Data Standards; Open GIS Data; GIS Software; Geoprocessing; Cartography; Species Habitat Modeling; Migration Patterns; Wildlife Monitoring; Biodiversity Assessments; Population Surveys; Conservation Strategies; Ecological Restoration; Climate Resilience; Climate Change; Historic; Current; Present; 2015-2025</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
   </si>
   <si>
     <t>https://cohealthviz.dphe.state.co.us/t/HSEBPublic/views/CHIDashboard_2024Redesign/CHILandingPage?%3Aembed=y&amp;%3AisGuestRedirectFromVizportal=y</t>
-  </si>
-  <si>
-    <t>Colorado; Public Health; Disease Surveillance</t>
   </si>
   <si>
     <t xml:space="preserve">Social; Demographics; Colorado; Age; Population; Tobacco; Physical Activity; Nutrition; Substance Use; Preventative Care; Sexual Behavior; Physical Environment; Social Environment; Economic Environment; Work Environment; Service Environment; Chronic Disease; Communicable Disease; Injury; Mortality; Birth; Colorado Public Health; community health; health indicators; behavioral health; clinical outcomes; social determinants; environmental health; injury rates; health disparities; poverty; education level; unemployment; birth outcomes; maternal health; disease prevalence; immunization rates; access to care; obesity; air quality; water quality; county-level data; regional comparison; statewide trends; Tableau dashboard; Environmental Justice; Social Vulnerability; Health Equity; Chronic Conditions; Cardiovascular Health; Maternal Mortality; Infant Health; Disability Access; Language Access; Socioeconomic Status; Environmental Exposure; Air Quality Index; Particulate Matter (PM2.5); Nitrogen Dioxide; Sulfur Dioxide; Volatile Organic Compounds; Water Quality Monitoring; Groundwater Contamination; Water Treatment; Industrial Pollution; Soil Contamination; Noise Pollution; Traffic Emissions; Transportation Planning; Emergency Response; Climate Adaptation; Heat Vulnerability; Flood Risk; Hazard Mapping; Wildfire Smoke; Ecological Resilience; Biodiversity Loss; Phenology; Climate Variability; Atmospheric Chemistry; Disease Outbreaks; Pathogen Surveillance; Molecular Diagnostics; Public Health Infrastructure; Vaccination Coverage; School Health Programs; Childcare Health; Urban Planning; Zoning Regulations; Population Health Metrics; Socio-Demographic Analysis; Health Access; Behavioral Risk Assessment; Substance Misuse Treatment; Licensed Healthcare Providers; Health Resource Allocation; Census Geography; Tract-Level Data; Community Health Profiles; Data Visualization; Temporal Trends; Health Informatics; Spatial Epidemiology; Social inequity; inequity; race; LGBTQ+; ethnicity; Disability; mental health; Age; Sex; Current; 2022 - 2024
@@ -329,9 +320,6 @@
   </si>
   <si>
     <t>https://wdh.energy.gov/data/wind-energy</t>
-  </si>
-  <si>
-    <t>Energy; Weather; United States</t>
   </si>
   <si>
     <t>wind energy; wind power; wind resource data; wind speed; wind direction; turbine data; wind farms; renewable energy; energy production; wind potential; meteorological data; wind measurements; wind monitoring; energy generation; wind capacity; wind energy statistics; energy infrastructure; environmental impact; grid integration; wind forecasting; power output; energy trends; clean energy; sustainable energy; wind site assessment; wind mapping; wind turbine performance; wind resource assessment; wind energy projects; wind energy development; energy data portal; wind speed distribution; wind power density; wind variability; seasonal wind patterns; wind shear; atmospheric data; wind energy modeling; energy analytics; energy policy; carbon reduction; climate impact; wind energy economics; energy management; transmission data; energy storage; energy grid; wind energy research; site-specific wind data; wind energy maps; renewable energy resources; energy production data; wind monitoring stations; wind farm locations; wind turbine specifications; wind power forecasts; energy planning; energy statistics; environmental data; energy trends analysis; High Resolution Doppler Lidar; HRDL; NOAA; Wind; Weather; wind energy zones; offshore wind; wind energy potential maps; turbine siting; wind turbine noise; blade design; aerodynamic modeling; wind energy siting regulations; wind curtailment; wind integration studies; power curve analysis; wind data logger; wind rose diagrams; wind farm optimization; wind turbine layout; wind energy feasibility; distributed wind systems; hybrid energy systems; wind project financing; turbine hub height; wind climatology; mesoscale wind modeling; turbine load analysis; vertical wind profiles; wind turbulence data; wind power ramp events; small wind systems; utility-scale wind; wind power conversion efficiency; wind project lifecycle; wind resource characterization; terrain effects on wind; wind speed variability; wind energy simulation; wind penetration rates; wind energy lifecycle emissions; community wind projects; wind project permitting; wind and wildlife interactions; land use and wind energy; wind power grid stability; wind resource mapping tools; wake effects in wind farms; wind turbine decommissioning; renewable portfolio standards; wind energy workforce; anemometer data; nacelle-mounted sensors; wind project assessment tools; wind turbine cost data; wind farm environmental studies; long-term wind data; wind project monitoring; wind power policy; wind energy outreach; wind and solar integration; climate change; Historic; Current; Present; 1991 - 2025</t>
@@ -617,9 +605,6 @@
     <t>https://www.movebank.org/cms/webapp?gwt_fragment=page%3Dsearch_map</t>
   </si>
   <si>
-    <t>Species Distribution; Animal Health; Biological Variability; Wildlife; Conservation; Global</t>
-  </si>
-  <si>
     <t>animal tracking; animal movement; telemetry data; tracking map; Movebank; GPS locations; Argos tags; VHF telemetry; sensor data; bio-logging; acceleration; magnetometer; barometer; temperature sensor; light-level sensor; satellite tracking; radio transmitter; animal deployments; deployment period; tag deployment; tag model; tag manufacturer; tag attachment; collar tag; harness tag; implant tag; tape tag; event data; timestamped locations; timestamped events; animal ID; tag ID; deployment ID; taxon; species tracking; genus tracking; family tracking; ITIS taxonomy; study metadata; study site; study name; sensor type filter; live data feed; public data access; restricted access data; data download; CSV download; Excel download; shapefile; KML export; REST API; MoveApps; EnvDATA; ECODATA; interactive map; map basemaps; Bing maps; Google maps; OpenStreetMap; density mapping; track visualization; point density; animal density; software tools; R import; telemetry R package; data management tools; attribute dictionary; sensor calibration; duty cycle; outlier filtering; event visibility; deployment comments; data owner; permissions; data sharing; data archiving; study permissions; animal metadata; tag metadata; deployment metadata; behavioral classification; habitat data; animal life stage; tag readout method; satellite uplink; phone network; data processing software; Wildlife movement; migration; animals; animal health; movement ecology; location data; GPS telemetry; tracking collars; tracking devices; biologging sensors; animal behavior monitoring; spatial tracking; remote sensing data; wildlife monitoring; movement patterns; seasonal migration; habitat use; animal migration routes; tracking accuracy; positional data; data filtering; location uncertainty; movement modeling; home range analysis; path analysis; animal speed; animal orientation; tracking frequency; tag battery life; sensor fusion; data interpolation; real-time tracking; animal tracking studies; tracking dataset; tag performance; data visualization tools; migration corridors; movement hotspots; habitat connectivity; spatial ecology; animal tracking software; open tracking data; tracking database; data standardization; movement data analysis; tracking metadata standards; GPS error correction; tag deployment protocols; animal tag retrieval; study design; multi-species tracking; tag sensor data; biologging data formats; animal location services; tag signal strength; telemetry project; movement data archive; wildlife tracking projects; animal path reconstruction; behavioral states; accelerometer data; magnetometer calibration; animal activity patterns; tracking ethics; species migration timing; biodiversity; Historic; Current; Present; 1965 - 2025</t>
   </si>
   <si>
@@ -671,9 +656,6 @@
   </si>
   <si>
     <t>https://data.fs.usda.gov/geodata/edw/datasets.php</t>
-  </si>
-  <si>
-    <t>Ecosystem Data; Land Management; Conservation; Species Distribution; United States</t>
   </si>
   <si>
     <t>Hazards; Waste; ecosystem; Contamination; USFS; EDW datasets; geospatial data; map services; downloadable data; national datasets; raster data; vector data; ESRI geodatabase; shapefile; GeoPackage; GeoJSON; CSV export; Character Separated Values; FGDB; KML export; GeoTIFF; ArcGIS REST service; OGC WMS; spatial data discovery; Geospatial Data Discovery Tool; FSTopo; visitor maps; interactive maps; motor vehicle user maps; administrative boundaries; forest boundaries; region boundaries; national forest lands; designated management areas; wilderness areas; wild &amp; scenic rivers; surface ownership; Land and Water Conservation Fund parcels; FASAB land classification; range vegetation improvement; silviculture; timber stand improvement; watershed condition classification; invasive plant occurrences; hazards/disasters; landscape change monitoring; forest biomass; tree canopy cover; Caribbean land cover; Chugach updates; rangelands; BigMap FIA; Puerto Rico Gap Analysis; special purpose FS data; State Private Tribal Forestry; research and development; map downloads; metadata XML; data discovery; attribute accuracy; FGDC metadata; spatial resolution; data refresh date; data quality; legal disclaimers; data standards; systems of record; resource planning; fire management; recreation; roads and trails; infrastructure data; hydrology; streamflow modeling; NHDPlus; climate projections; RCP8.5; VIC hydrologic model; business intelligence tools; Forest Service GIS; FSGeodata Clearinghouse; Data.gov; ArcGIS Online; open data portal; eco‑data integration; user licenses; map symbology; layer selection; map imagery; forest service maps; remote sensing; map tile services; web mapping; API services; XML metadata; geospatial standards; data discovery metadata manual; geospatial clearinghouse; data refresh schedule; download formats; forest service field centers; FSIC‑GO; environmental hazards; pollution data; hazardous waste sites; contaminated sites; soil contamination; water contamination; chemical spills; environmental risk assessment; disaster response mapping; emergency management GIS; spatial risk analysis; land use planning; natural resource data; forest health monitoring; wildfire risk; fire perimeter mapping; vegetation management; ecosystem restoration; soil erosion data; watershed management; hydrologic datasets; floodplain mapping; topographic data; digital elevation models; remote sensing imagery; multispectral data; LiDAR datasets; aerial photography; geospatial analytics; cartographic services; map visualization tools; spatial data infrastructure; data interoperability standards; geospatial metadata; geodatabase management; GIS web services; spatial data catalogs; data download portals; spatial data APIs; map service interoperability; cloud GIS platforms; spatial data governance; geographic information science; geospatial data portals; federal land management data; forest inventory analysis; landscape ecology; ecological footprint mapping; habitat suitability models; protected lands data; GIS data security; spatial decision support systems; environmental monitoring networks; forest carbon data; land cover classification; geospatial data visualization; user access controls; open GIS data; spatial data quality assurance; land tenure data; digital cartography; interactive geospatial dashboards; geospatial data standards compliance; geospatial workflows; GIS training resources; spatial data licensing; map layer metadata; spatial data cataloging; geospatial data refresh protocols; Historic; Current; Present; 1976 - 2025</t>
@@ -811,9 +793,6 @@
   </si>
   <si>
     <t>https://www.bv-brc.org/</t>
-  </si>
-  <si>
-    <t>Animal Health; Biological Variability; Disease Surveillance; Global; Infectious Disease Monitoring; Public Health</t>
   </si>
   <si>
     <t>BV-BRC; PATRIC; IRD; ViPR; bacterial genomes; viral genomes; annotated genomes; genome assembly; antimicrobial resistance; AMR; antibiotic resistance; virulence factors; genome metadata; host metadata; phylogenetics; phylogenomic analysis; pan-genome; core genome; genome browser; genome annotation; comparative genomics; protein families; protein-protein interactions; metabolic pathways; protein structures; viral proteins; pathogen-host interactions; serology; surveillance data; high-throughput sequencing; whole genome sequencing; transcriptomics; gene expression; metagenomics; metatranscriptomics; epitope prediction; immune epitopes; vaccine targets; CRISPR-Cas systems; biosurveillance; zoonotic diseases; emerging pathogens; NIAID; reference genomes; representative genomes; RefSeq; GenBank; SRA; host-pathogen interactions; functional annotation; SNP analysis; protein domains; alignment tools; BLAST; multiple sequence alignment; Clustal Omega; MUSCLE; phylogenetic trees; tree viewer; heatmap; genome statistics; metadata visualization; sample metadata; taxonomic classification; microbial taxonomy; pathogen genomics; infectious diseases; comparative analysis; data mining; infectious disease informatics; bacterial pathogens; viral pathogens; virome; bacteriophage; eukaryotic pathogens; zoonoses; host data; sample metadata; disease outbreak data; annotation services; genome annotation pipeline; custom genomes; private workspace; command-line tools; REST API; data integration; NCBI data; biosample metadata; curated data; experimental data; computational predictions; public health; clinical isolates; biothreat agents; NIAID priority pathogens; biodefense; antibiotic targets; resistance genes; virulence genes; microbial surveillance; public data repository; big data; systems biology; bioinformatics tools; omics data; sequence data; comparative tools; data visualization; integrated workflows; curated genomes; taxonomic lineage; literature mining; PubMed integration; protein annotations; functional roles; subsystem annotation; comparative pathway analysis; AMR metadata; epidemiological metadata; genome feature comparison; fastq files; GFF files; genome FASTA; protein FASTA; genome reports; metadata filtering; viral surveillance; global health; research resource; scientific reproducibility; data provenance; microbial ecology; host specificity; host range; sequence typing; MLST; genome epidemiology; genome metrics; read mapping; feature overview; experimental conditions; virology; bacteriology; pathogen discovery; infectious disease surveillance; virus taxonomy; genome graph; PATRIC tools; IRD tools; ViPR tools; clinical metadata; virome analysis; SARS-CoV-2; influenza virus; HIV; norovirus; coronavirus; enteric pathogens; foodborne pathogens; environmental sampling; biosample tracking; data submission; public genomics resource; genome curation; bacterial phylogeny; viral evolution; genetic markers; mobile genetic elements; insertion sequences; plasmid profiling; genomic islands; integrons; pathogenicity islands; horizontal gene transfer; molecular epidemiology; genome diversity; host adaptation; comparative virology; functional genomics; post-genomic analysis; genome-scale analysis; resistance profiling; virulence profiling; phylogenetic inference; maximum likelihood trees; genome-wide association studies; GWAS pathogens; proteome analysis; systems vaccinology; immunoinformatics; antibody response; antigen discovery; host response data; omics integration; transcriptome browser; single-cell sequencing; long-read sequencing; third-generation sequencing; genome completeness; assembly quality; contig analysis; scaffolding; automated annotation; protein modeling; genome visualization; genetic context analysis; viral genomics pipelines; outbreak tracking; pathogen transmission; epidemic modeling; time-resolved phylogenetics; metadata harmonization; FAIR data; public health bioinformatics; microbial forensics; host genotype; reservoir species; environmental metagenomics; microbial consortia; gene ontology; resistance ontology; virulence ontology; biological pathways; curated ontologies; strain typing; phenotypic profiling; laboratory data integration; sequence curation; in silico typing; pathogen surveillance networks; real-time genomics; data standardization; cross-species analysis; species-specific databases; experimental pipelines; web-based bioinformatics; predictive modeling; bioinformatics workflows; annotation accuracy; sequence QC; genome submission tools; research reproducibility; sample tracking; sequence repositories; outbreak databases; pathogen biogeography; genomics-informed response; integrative genomics; predictive epidemiology; comparative AMR analytics; pan-virome analysis; clinical pathogenomics; translational bioinformatics; genomic epidemiology platforms; emerging zoonoses monitoring; computational virology; sequence aligner tools; open-access bioinformatics; public sequencing efforts; genomic public health response; national bioinformatics networks; CSV; Text; DNA FASTA; Historic; Current; Present; 2025</t>
@@ -1142,94 +1121,7 @@
 - Centers for Disease Control and Prevention. (n.d.). *National Center for Health Statistics (NCHS)*. Retrieved September 23, 2025, from &lt;https://www.cdc.gov/nchs/index.html&gt;</t>
   </si>
   <si>
-    <t>Colorado; Public Health; Weather; Ecosystem Data; Agriculture</t>
-  </si>
-  <si>
     <t>Animal Health; Ecosystem Data; Endangered; Wildlife; Population Health; Biological Variability</t>
-  </si>
-  <si>
-    <t>Public Health; Colorado; Ecosystem Data; Disease Surveillance</t>
-  </si>
-  <si>
-    <t>Infectious Disease Monitoring; Public Health; Animal Health; Global</t>
-  </si>
-  <si>
-    <t>Weather; Ecosystem Data; Long Term Weather Trends; United States</t>
-  </si>
-  <si>
-    <t>Ecosystem Data; Energy; Long Term Weather Trends; Weather; United States</t>
-  </si>
-  <si>
-    <t>Biological Variability; Public Health; Global</t>
-  </si>
-  <si>
-    <t>Infectious Disease Monitoring; Animal Health; Public Health; Agriculture; Global</t>
-  </si>
-  <si>
-    <t>Biological Variability; Ecosystem Data; Species Distribution; Global; Conservation</t>
-  </si>
-  <si>
-    <t>Conservation; Biological Variability; Ecosystem Data; Species Distribution; Wildlife; United States</t>
-  </si>
-  <si>
-    <t>Conservation; Ecosystem Data; Species Distribution; Wildlife; United States</t>
-  </si>
-  <si>
-    <t>United States; Agriculture; Infectious Disease Monitoring; Animal Health</t>
-  </si>
-  <si>
-    <t>Agriculture; Land Management; United States; Animal Health</t>
-  </si>
-  <si>
-    <t>Weather; Ecosystem Data;  Long Term Weather Trends; Global</t>
-  </si>
-  <si>
-    <t>Ecosystem Data; Land Management; Species Distribution; United States</t>
-  </si>
-  <si>
-    <t>Weather; Long Term Weather Trends; Ocean; Global</t>
-  </si>
-  <si>
-    <t>Land Management; Wildlife; Conservation; Agriculture; United States</t>
-  </si>
-  <si>
-    <t>United States; Population Health; Agriculture; Ecosystem Data; Energy; Weather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean; Global; Long Term Weather Trends; Weather; Species Distribution </t>
-  </si>
-  <si>
-    <t>Biological Variability; Population Health; Public Health; Energy; Global; Infectious Disease Monitoring; United States</t>
-  </si>
-  <si>
-    <t>Biological Variability; Disease Surveillance; Global; Infectious Disease Monitoring; Population Health; Public Health; United States</t>
-  </si>
-  <si>
-    <t>Biological Variability; Disease Surveillance; Global; Population Health; Public Health; United States</t>
-  </si>
-  <si>
-    <t>Public Health; United States</t>
-  </si>
-  <si>
-    <t>Population Health; Public Health; United States</t>
-  </si>
-  <si>
-    <t>Agriculture; Animal Health; Disease Surveillance; Global; Infectious Disease Monitoring; Wildlife</t>
-  </si>
-  <si>
-    <t>Long Term Weather Trends; Ecosystem Data; Energy; Global; Land Management; Ocean; United States; Weather</t>
-  </si>
-  <si>
-    <t>Agriculture; Long Term Weather Trends; Ecosystem Data; Energy; Global; Land Management; Ocean; United States; Weather</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Infectious Disease Monitoring; Population Health; Public Health; United States</t>
-  </si>
-  <si>
-    <t>Agriculture; Animal Health; Disease Surveillance; Infectious Disease Monitoring; Public Health; United States; Wildlife</t>
-  </si>
-  <si>
-    <t>Disease Surveillance; Population Health; Public Health; United States</t>
   </si>
   <si>
     <t>Global; United States</t>
@@ -1426,6 +1318,114 @@
 #### Citation Information
 - Follow the instructions given on the [USGS’ Data Citation](https://www.usgs.gov/centers/eros/data-citation) page
 - U.S. Geological Survey. (n.d.). *EarthExplorer*. Retrieved September 23, 2025, from &lt;https://earthexplorer.usgs.gov/&gt;</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Public Health; Population Health</t>
+  </si>
+  <si>
+    <t>Public Health; Weather; Ecosystem Data; Agriculture</t>
+  </si>
+  <si>
+    <t>Land Management; Conservation; Ecosystem Data; Agriculture; Species Distribution</t>
+  </si>
+  <si>
+    <t>Public Health; Ecosystem Data; Disease Surveillance</t>
+  </si>
+  <si>
+    <t>Public Health; Disease Surveillance</t>
+  </si>
+  <si>
+    <t>Infectious Disease Monitoring; Public Health; Animal Health</t>
+  </si>
+  <si>
+    <t>Weather; Ecosystem Data; Long Term Weather Trends</t>
+  </si>
+  <si>
+    <t>Energy; Weather</t>
+  </si>
+  <si>
+    <t>Ecosystem Data; Energy; Long Term Weather Trends; Weather</t>
+  </si>
+  <si>
+    <t>Biological Variability; Public Health</t>
+  </si>
+  <si>
+    <t>Infectious Disease Monitoring; Animal Health; Public Health; Agriculture</t>
+  </si>
+  <si>
+    <t>Biological Variability; Ecosystem Data; Species Distribution; Conservation</t>
+  </si>
+  <si>
+    <t>Conservation; Biological Variability; Ecosystem Data; Species Distribution; Wildlife</t>
+  </si>
+  <si>
+    <t>Conservation; Ecosystem Data; Species Distribution; Wildlife</t>
+  </si>
+  <si>
+    <t>Agriculture; Infectious Disease Monitoring; Animal Health</t>
+  </si>
+  <si>
+    <t>Agriculture; Land Management; Animal Health</t>
+  </si>
+  <si>
+    <t>Weather; Ecosystem Data;  Long Term Weather Trends</t>
+  </si>
+  <si>
+    <t>Species Distribution; Animal Health; Biological Variability; Wildlife; Conservation</t>
+  </si>
+  <si>
+    <t>Ecosystem Data; Land Management; Species Distribution</t>
+  </si>
+  <si>
+    <t>Ecosystem Data; Land Management; Conservation; Species Distribution</t>
+  </si>
+  <si>
+    <t>Weather; Long Term Weather Trends; Ocean</t>
+  </si>
+  <si>
+    <t>Land Management; Wildlife; Conservation; Agriculture</t>
+  </si>
+  <si>
+    <t>Population Health; Agriculture; Ecosystem Data; Energy; Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean; Long Term Weather Trends; Weather; Species Distribution </t>
+  </si>
+  <si>
+    <t>Animal Health; Biological Variability; Disease Surveillance; Infectious Disease Monitoring; Public Health</t>
+  </si>
+  <si>
+    <t>Biological Variability; Population Health; Public Health; Energy; Infectious Disease Monitoring</t>
+  </si>
+  <si>
+    <t>Biological Variability; Disease Surveillance; Infectious Disease Monitoring; Population Health; Public Health</t>
+  </si>
+  <si>
+    <t>Biological Variability; Disease Surveillance; Population Health; Public Health</t>
+  </si>
+  <si>
+    <t>Public Health</t>
+  </si>
+  <si>
+    <t>Population Health; Public Health</t>
+  </si>
+  <si>
+    <t>Agriculture; Animal Health; Disease Surveillance; Infectious Disease Monitoring; Wildlife</t>
+  </si>
+  <si>
+    <t>Long Term Weather Trends; Ecosystem Data; Energy; Land Management; Ocean; Weather</t>
+  </si>
+  <si>
+    <t>Agriculture; Long Term Weather Trends; Ecosystem Data; Energy; Land Management; Ocean; Weather</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Infectious Disease Monitoring; Population Health; Public Health</t>
+  </si>
+  <si>
+    <t>Agriculture; Animal Health; Disease Surveillance; Infectious Disease Monitoring; Public Health; Wildlife</t>
+  </si>
+  <si>
+    <t>Disease Surveillance; Population Health; Public Health</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L30" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1989,7 +1989,7 @@
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" customWidth="1"/>
@@ -2040,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2071,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>16</v>
@@ -2087,7 +2087,7 @@
         <v>2025</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>18</v>
@@ -2121,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>21</v>
@@ -2143,13 +2143,13 @@
         <v>2025</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="N3" s="45">
         <v>45974</v>
@@ -2201,13 +2201,13 @@
         <v>2025</v>
       </c>
       <c r="K4" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="N4" s="45">
         <v>45974</v>
@@ -2232,13 +2232,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>22</v>
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22">
@@ -2257,13 +2257,13 @@
         <v>2025</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>37</v>
       </c>
       <c r="N5" s="45">
         <v>45974</v>
@@ -2288,16 +2288,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>16</v>
@@ -2313,13 +2313,13 @@
         <v>2025</v>
       </c>
       <c r="K6" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="N6" s="45">
         <v>45974</v>
@@ -2344,22 +2344,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22">
@@ -2369,13 +2369,13 @@
         <v>2025</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" s="45">
         <v>45974</v>
@@ -2400,13 +2400,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>22</v>
@@ -2415,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12">
@@ -2425,13 +2425,13 @@
         <v>2024</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="N8" s="45">
         <v>45974</v>
@@ -2456,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>22</v>
@@ -2471,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22">
@@ -2481,13 +2481,13 @@
         <v>2023</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N9" s="45">
         <v>45974</v>
@@ -2512,16 +2512,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>16</v>
@@ -2537,13 +2537,13 @@
         <v>2005</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N10" s="45">
         <v>45974</v>
@@ -2568,16 +2568,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>16</v>
@@ -2593,13 +2593,13 @@
         <v>2025</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="N11" s="45">
         <v>45974</v>
@@ -2624,16 +2624,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>16</v>
@@ -2649,13 +2649,13 @@
         <v>2025</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N12" s="45">
         <v>45974</v>
@@ -2680,16 +2680,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>16</v>
@@ -2705,13 +2705,13 @@
         <v>2025</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N13" s="45">
         <v>45974</v>
@@ -2736,16 +2736,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>16</v>
@@ -2761,13 +2761,13 @@
         <v>2025</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N14" s="45">
         <v>45974</v>
@@ -2792,16 +2792,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>16</v>
@@ -2817,13 +2817,13 @@
         <v>2025</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="45">
         <v>45974</v>
@@ -2848,19 +2848,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>17</v>
@@ -2873,13 +2873,13 @@
         <v>2025</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N16" s="45">
         <v>45974</v>
@@ -2904,16 +2904,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>16</v>
@@ -2929,13 +2929,13 @@
         <v>2025</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N17" s="45">
         <v>45974</v>
@@ -2960,16 +2960,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>16</v>
@@ -2985,13 +2985,13 @@
         <v>2025</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N18" s="45">
         <v>45974</v>
@@ -3016,16 +3016,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>16</v>
@@ -3041,13 +3041,13 @@
         <v>2025</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="N19" s="45">
         <v>45974</v>
@@ -3072,19 +3072,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>23</v>
@@ -3097,13 +3097,13 @@
         <v>2023</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N20" s="45">
         <v>45974</v>
@@ -3128,16 +3128,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>16</v>
@@ -3153,13 +3153,13 @@
         <v>2025</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N21" s="45">
         <v>45974</v>
@@ -3184,16 +3184,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>16</v>
@@ -3209,13 +3209,13 @@
         <v>2025</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N22" s="45">
         <v>45974</v>
@@ -3240,19 +3240,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>23</v>
@@ -3265,13 +3265,13 @@
         <v>2025</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M23" s="25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N23" s="45">
         <v>45974</v>
@@ -3296,16 +3296,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>16</v>
@@ -3321,13 +3321,13 @@
         <v>2025</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N24" s="45">
         <v>45974</v>
@@ -3352,19 +3352,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>17</v>
@@ -3377,13 +3377,13 @@
         <v>2025</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N25" s="45">
         <v>45974</v>
@@ -3408,16 +3408,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>16</v>
@@ -3433,13 +3433,13 @@
         <v>2025</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N26" s="45">
         <v>45974</v>
@@ -3464,16 +3464,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>16</v>
@@ -3489,13 +3489,13 @@
         <v>2025</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N27" s="45">
         <v>45974</v>
@@ -3520,16 +3520,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>16</v>
@@ -3545,13 +3545,13 @@
         <v>2025</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N28" s="45">
         <v>45974</v>
@@ -3576,16 +3576,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>16</v>
@@ -3599,13 +3599,13 @@
         <v>2025</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="N29" s="45">
         <v>45974</v>
@@ -3630,22 +3630,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13">
@@ -3655,13 +3655,13 @@
         <v>2025</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="N30" s="45">
         <v>45974</v>
@@ -3686,13 +3686,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>22</v>
@@ -3700,8 +3700,8 @@
       <c r="F31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>23</v>
+      <c r="G31" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="34">
@@ -3711,13 +3711,13 @@
         <v>2025</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="N31" s="45">
         <v>45974</v>
@@ -3742,13 +3742,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>22</v>
@@ -3757,7 +3757,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13">
@@ -3767,13 +3767,13 @@
         <v>2025</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="N32" s="45">
         <v>45974</v>
@@ -3798,13 +3798,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>22</v>
@@ -3812,8 +3812,8 @@
       <c r="F33" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>23</v>
+      <c r="G33" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="34">
@@ -3823,13 +3823,13 @@
         <v>2025</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N33" s="45">
         <v>45974</v>
@@ -3854,13 +3854,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>22</v>
@@ -3869,7 +3869,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13">
@@ -3879,13 +3879,13 @@
         <v>2025</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N34" s="45">
         <v>45974</v>
@@ -3910,13 +3910,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>22</v>
@@ -3935,13 +3935,13 @@
         <v>2025</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N35" s="45">
         <v>45974</v>
@@ -3966,13 +3966,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>22</v>
@@ -3991,13 +3991,13 @@
         <v>2025</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="N36" s="45">
         <v>45974</v>
@@ -4022,16 +4022,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>16</v>
@@ -4047,13 +4047,13 @@
         <v>2025</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="N37" s="45">
         <v>45974</v>
@@ -4078,22 +4078,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13">
@@ -4103,13 +4103,13 @@
         <v>2025</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N38" s="45">
         <v>45974</v>
@@ -4134,22 +4134,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="34">
@@ -4159,13 +4159,13 @@
         <v>2025</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="N39" s="45">
         <v>45974</v>
@@ -4190,13 +4190,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>22</v>
@@ -4215,13 +4215,13 @@
         <v>2025</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N40" s="45">
         <v>45974</v>
@@ -4246,16 +4246,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>16</v>
@@ -4271,13 +4271,13 @@
         <v>2025</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="N41" s="45">
         <v>45974</v>
@@ -4302,13 +4302,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>22</v>
@@ -4327,13 +4327,13 @@
         <v>2025</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L42" s="43" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M42" s="44" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N42" s="45">
         <v>45974</v>
